--- a/DDR_Auswertung/DDR_Messdaten_1.xlsx
+++ b/DDR_Auswertung/DDR_Messdaten_1.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janjo/Library/Mobile Documents/iCloud~md~obsidian/Documents/ETH/PPC_Meister/DDR_Auswertung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariazimmermann/GitHub/ppc_skripts_reports/DDR_Auswertung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB13013-0A35-5946-9D54-5861D41C83D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316D799-46FF-5F47-8EF2-9DA998F9CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{89DF8BA3-2CB1-FB4F-A0FE-0A0512EB1E2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{89DF8BA3-2CB1-FB4F-A0FE-0A0512EB1E2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="n-Hexane (increase)" sheetId="1" r:id="rId1"/>
-    <sheet name="n-Hexane (decrease)" sheetId="2" r:id="rId2"/>
-    <sheet name="Acetone (increase)" sheetId="3" r:id="rId3"/>
-    <sheet name="Acetone (decrease)" sheetId="4" r:id="rId4"/>
+    <sheet name="n-Hexane (all)" sheetId="5" r:id="rId1"/>
+    <sheet name="n-Hexane (increase)" sheetId="1" r:id="rId2"/>
+    <sheet name="n-Hexane (decrease)" sheetId="2" r:id="rId3"/>
+    <sheet name="Acetone (all)" sheetId="6" r:id="rId4"/>
+    <sheet name="Acetone (increase)" sheetId="3" r:id="rId5"/>
+    <sheet name="Acetone (decrease)" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>T/°C</t>
   </si>
@@ -69,12 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEE962C-ACCC-B842-8874-15DE65158C9A}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16ED5FB-F848-1F49-B2E8-D3CF2B36D3E6}">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,7 +423,7 @@
       <c r="A4">
         <v>25.9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>200</v>
       </c>
     </row>
@@ -430,7 +431,7 @@
       <c r="A5">
         <v>30.7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>249</v>
       </c>
     </row>
@@ -438,7 +439,7 @@
       <c r="A6">
         <v>35.1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>300</v>
       </c>
     </row>
@@ -446,7 +447,7 @@
       <c r="A7">
         <v>38.9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>350</v>
       </c>
     </row>
@@ -454,7 +455,7 @@
       <c r="A8">
         <v>42</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>400</v>
       </c>
     </row>
@@ -462,7 +463,7 @@
       <c r="A9">
         <v>45.2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>450</v>
       </c>
     </row>
@@ -470,7 +471,7 @@
       <c r="A10">
         <v>48</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>500</v>
       </c>
     </row>
@@ -478,7 +479,7 @@
       <c r="A11">
         <v>50.6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>550</v>
       </c>
     </row>
@@ -486,7 +487,7 @@
       <c r="A12">
         <v>53.1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>600</v>
       </c>
     </row>
@@ -494,7 +495,7 @@
       <c r="A13">
         <v>55.4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>650</v>
       </c>
     </row>
@@ -502,7 +503,7 @@
       <c r="A14">
         <v>57.6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>700</v>
       </c>
     </row>
@@ -510,7 +511,7 @@
       <c r="A15">
         <v>59.6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>750</v>
       </c>
     </row>
@@ -518,7 +519,7 @@
       <c r="A16">
         <v>61.4</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>800</v>
       </c>
     </row>
@@ -526,7 +527,7 @@
       <c r="A17">
         <v>63.4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>850</v>
       </c>
     </row>
@@ -534,20 +535,158 @@
       <c r="A18">
         <v>65.099999999999994</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>900</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>65.2</v>
+      </c>
+      <c r="B19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>63.3</v>
+      </c>
+      <c r="B20">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>61.4</v>
+      </c>
+      <c r="B21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>59.6</v>
+      </c>
+      <c r="B22">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>57.6</v>
+      </c>
+      <c r="B23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>55.3</v>
+      </c>
+      <c r="B24">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>53.1</v>
+      </c>
+      <c r="B25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50.7</v>
+      </c>
+      <c r="B26">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>48.2</v>
+      </c>
+      <c r="B27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>45.3</v>
+      </c>
+      <c r="B28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>42.3</v>
+      </c>
+      <c r="B29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>38.9</v>
+      </c>
+      <c r="B30">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>35.1</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30.8</v>
+      </c>
+      <c r="B32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>19.7</v>
+      </c>
+      <c r="B34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>11.7</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8224E2D-A14A-364C-BC20-BE190C4F5C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEE962C-ACCC-B842-8874-15DE65158C9A}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A2:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -561,71 +700,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>65.2</v>
+        <v>11.5</v>
       </c>
       <c r="B2">
-        <v>900</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>63.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="B3">
-        <v>850</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>61.4</v>
+        <v>25.9</v>
       </c>
       <c r="B4">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>59.6</v>
+        <v>30.7</v>
       </c>
       <c r="B5">
-        <v>750</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>57.6</v>
+        <v>35.1</v>
       </c>
       <c r="B6">
-        <v>700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>55.3</v>
+        <v>38.9</v>
       </c>
       <c r="B7">
-        <v>650</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>53.1</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>50.7</v>
+        <v>45.2</v>
       </c>
       <c r="B9">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>500</v>
@@ -633,66 +772,66 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>45.3</v>
+        <v>50.6</v>
       </c>
       <c r="B11">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>42.3</v>
+        <v>53.1</v>
       </c>
       <c r="B12">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>38.9</v>
+        <v>55.4</v>
       </c>
       <c r="B13">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>35.1</v>
+        <v>57.6</v>
       </c>
       <c r="B14">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30.8</v>
+        <v>59.6</v>
       </c>
       <c r="B15">
-        <v>250</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>26</v>
+        <v>61.4</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>19.7</v>
+        <v>63.4</v>
       </c>
       <c r="B17">
-        <v>150</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>11.7</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="B18">
-        <v>100</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +840,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A24845E-F862-C649-BBC0-A33158757C3D}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8224E2D-A14A-364C-BC20-BE190C4F5C73}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -718,146 +859,138 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>11</v>
+        <v>65.2</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>13.8</v>
+        <v>63.3</v>
       </c>
       <c r="B3">
-        <v>175</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16.7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
+        <v>61.4</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>19.2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>225</v>
+        <v>59.6</v>
+      </c>
+      <c r="B5">
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>21.6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>250</v>
+        <v>57.6</v>
+      </c>
+      <c r="B6">
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>25.6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>299</v>
+        <v>55.3</v>
+      </c>
+      <c r="B7">
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>28.9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>350</v>
+        <v>53.1</v>
+      </c>
+      <c r="B8">
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>32.1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>399</v>
+        <v>50.7</v>
+      </c>
+      <c r="B9">
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>34.9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>450</v>
+        <v>48.2</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="B11" s="1">
-        <v>499</v>
+        <v>45.3</v>
+      </c>
+      <c r="B11">
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>40.4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>549</v>
+        <v>42.3</v>
+      </c>
+      <c r="B12">
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>42.8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>598</v>
+        <v>38.9</v>
+      </c>
+      <c r="B13">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>44.7</v>
-      </c>
-      <c r="B14" s="1">
-        <v>650</v>
+        <v>35.1</v>
+      </c>
+      <c r="B14">
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>46.4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>698</v>
+        <v>30.8</v>
+      </c>
+      <c r="B15">
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>48.3</v>
-      </c>
-      <c r="B16" s="1">
-        <v>748</v>
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>50.1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>797</v>
+        <v>19.7</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>51.7</v>
-      </c>
-      <c r="B18" s="1">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>53.2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>900</v>
+        <v>11.7</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -866,10 +999,315 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDABCB2-29E6-4941-8AAC-28AB83528FA6}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070F8D27-08C3-7441-89BC-0EF5F783B065}">
+  <dimension ref="A2:B37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>13.8</v>
+      </c>
+      <c r="B4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>16.7</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>19.2</v>
+      </c>
+      <c r="B6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>21.6</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>25.6</v>
+      </c>
+      <c r="B8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>28.9</v>
+      </c>
+      <c r="B9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>32.1</v>
+      </c>
+      <c r="B10">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>34.9</v>
+      </c>
+      <c r="B11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="B12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>40.4</v>
+      </c>
+      <c r="B13">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>42.8</v>
+      </c>
+      <c r="B14">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>44.7</v>
+      </c>
+      <c r="B15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>46.4</v>
+      </c>
+      <c r="B16">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>48.3</v>
+      </c>
+      <c r="B17">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>50.1</v>
+      </c>
+      <c r="B18">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>51.7</v>
+      </c>
+      <c r="B19">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>53.2</v>
+      </c>
+      <c r="B20">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>53.1</v>
+      </c>
+      <c r="B21">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>51.4</v>
+      </c>
+      <c r="B22">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>49.7</v>
+      </c>
+      <c r="B23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>47.7</v>
+      </c>
+      <c r="B24">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>44.2</v>
+      </c>
+      <c r="B26">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>43.2</v>
+      </c>
+      <c r="B27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="B29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>34.9</v>
+      </c>
+      <c r="B30">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>32.1</v>
+      </c>
+      <c r="B31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28.8</v>
+      </c>
+      <c r="B32">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>25.3</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>21.2</v>
+      </c>
+      <c r="B34">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>11.2</v>
+      </c>
+      <c r="B36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A24845E-F862-C649-BBC0-A33158757C3D}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -883,6 +1321,173 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>13.8</v>
+      </c>
+      <c r="B3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16.7</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>19.2</v>
+      </c>
+      <c r="B5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>21.6</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>25.6</v>
+      </c>
+      <c r="B7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>28.9</v>
+      </c>
+      <c r="B8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32.1</v>
+      </c>
+      <c r="B9">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>34.9</v>
+      </c>
+      <c r="B10">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="B11">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>40.4</v>
+      </c>
+      <c r="B12">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>42.8</v>
+      </c>
+      <c r="B13">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>44.7</v>
+      </c>
+      <c r="B14">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>46.4</v>
+      </c>
+      <c r="B15">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>48.3</v>
+      </c>
+      <c r="B16">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>50.1</v>
+      </c>
+      <c r="B17">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>51.7</v>
+      </c>
+      <c r="B18">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>53.2</v>
+      </c>
+      <c r="B19">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDABCB2-29E6-4941-8AAC-28AB83528FA6}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>53.1</v>
       </c>
       <c r="B2">
@@ -917,7 +1522,7 @@
       <c r="A6">
         <v>46</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>700</v>
       </c>
     </row>
@@ -925,7 +1530,7 @@
       <c r="A7">
         <v>44.2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>650</v>
       </c>
     </row>
@@ -933,7 +1538,7 @@
       <c r="A8">
         <v>43.2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>600</v>
       </c>
     </row>
@@ -941,7 +1546,7 @@
       <c r="A9">
         <v>40</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>550</v>
       </c>
     </row>
@@ -949,7 +1554,7 @@
       <c r="A10">
         <v>37.700000000000003</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>500</v>
       </c>
     </row>
@@ -957,7 +1562,7 @@
       <c r="A11">
         <v>34.9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>450</v>
       </c>
     </row>
@@ -965,7 +1570,7 @@
       <c r="A12">
         <v>32.1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>400</v>
       </c>
     </row>
@@ -973,7 +1578,7 @@
       <c r="A13">
         <v>28.8</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>350</v>
       </c>
     </row>
@@ -981,7 +1586,7 @@
       <c r="A14">
         <v>25.3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>300</v>
       </c>
     </row>
@@ -989,7 +1594,7 @@
       <c r="A15">
         <v>21.2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>250</v>
       </c>
     </row>
@@ -997,7 +1602,7 @@
       <c r="A16">
         <v>16.399999999999999</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>200</v>
       </c>
     </row>
@@ -1005,7 +1610,7 @@
       <c r="A17">
         <v>11.2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>150</v>
       </c>
     </row>
@@ -1013,7 +1618,7 @@
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>125</v>
       </c>
     </row>
